--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesbetz/Documents/03_UPenn/05_Paper/Autonomous_Racing_Review/literature/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesbetz/Documents/99_Programming/AutonomousRacing_Literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE86F-DA54-7443-91C0-966FA19C3258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5759E7-53B0-864C-9D73-785804F6C24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26480" xr2:uid="{C9A78CC6-6B2A-6642-AAF0-EDC9630CD29D}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26480" xr2:uid="{C9A78CC6-6B2A-6642-AAF0-EDC9630CD29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Paper Overview" sheetId="1" r:id="rId1"/>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesbetz/Documents/99_Programming/AutonomousRacing_Literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5759E7-53B0-864C-9D73-785804F6C24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB8043-0BAD-D54C-ADFF-FD1DD34D62E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26480" xr2:uid="{C9A78CC6-6B2A-6642-AAF0-EDC9630CD29D}"/>
   </bookViews>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="857">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -708,397 +708,400 @@
     <t xml:space="preserve">https://ieeexplore.ieee.org/document/9196757</t>
   </si>
   <si>
+    <t xml:space="preserve">Wang Zijian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlinear receding horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Theoretic Motion Planning for Multi-robot Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/chapter/10.1007%2F978-3-030-05816-6_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcal Eugenio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPV-MPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPV-MP planning for autonomous racing vehicles considering obstacles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0921889019304877?casa_token=lIEIomm8KuYAAAAA:dC1T7cogNxWDTxFk_3dwtXevT--hcbvF_Bk1HI2n80K5lHwScN2xQ0BywYpy59N_d4KCqyZ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kloeser Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Planning&amp;Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPC for Racing Using a Singularity-Free Path-Parametric Model with Obstacle Avoidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-sciencedirect-com.proxy.library.upenn.edu/science/article/pii/S2405896320317845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwarting Wilko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief-space planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Dynamic Games in Belief Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1109/TRO.2021.3075376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theodosis Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raceline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating a Racing Line for an Autonomous Racecar Using Professional Driving Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Gerdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asmedigitalcollection.asme.org/DSCC/proceedings-abstract/DSCC2011/853/353667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlinear Optimization of a Racing Line for an Autonomous Racecar Using Professional Driving Techniques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asmedigitalcollection.asme.org/DSCC/proceedings-abstract/DSCC2012-MOVIC2012/235/229273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapania Nitin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sequential Two-Step Algorithm for Fast Generation of Vehicle Racing Trajectories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asmedigitalcollection.asme.org/dynamicsystems/article-abstract/138/9/091005/384344/A-Sequential-Two-Step-Algorithm-for-Fast?redirectedFrom=fulltext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funke Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evasive Maneuvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision Avoidance and Stabilization for Autonomous Vehicles in Emergency Scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/7585053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subosits John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the Racetrack to the Road: Real-Time Trajectory Replanning for Autonomous Driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8671749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Additional Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model fidelity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of Model Fidelity on Trajectory Optimization for Autonomous Vehicles in Extreme Maneuvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9325924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gottmann Frieder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Influence of Rear Axle Steering and Modeling Depth on a Model Based Racing Line Generation for Autonomous Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8511508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heilmeier Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum curcature trajectory planning and control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tandfonline.com/doi/10.1080/00423114.2019.1631455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herrmann Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum-Time + Minimum Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy management strategy for an autonomous electric racecar using optimal control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer graph-based trajectory planning for race vehicles in dynamic scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermansdorfer Leonhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 -  Additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concept for estimation and prediction of the tire-road friction potential for an autonomous racecar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Race-Time Planning-Strategy for an Autonomous Electric Racecar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-Time Adaptive Velocity Optimization for Autonomous Electric Cars at the Limits of Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9310276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formal Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Verification Concept for Autonomous Vehicles–Illustrative Study for a Trajectory Planning Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caporale Danilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Planning and Control System for Self-Driving Racing Vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8548444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ Fabian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-optimal trajectory planning for a race car considering variable tyre-road friction coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tandfonline.com/doi/abs/10.1080/00423114.2019.1704804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Linie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter/Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth Reference Line Generation for a Race Track with Gates based on Defined Borders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore-ieee-org.proxy.library.upenn.edu/document/9304722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Verification Enabling Approval of Driving Functions—Implementation for a Planner of an Autonomous Race Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9424710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liniger Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:43 car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization-based autonomous racing of 1:43 scale RC cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Liniger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1002/oca.2123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPC Viability Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A viability approach for fast recursive feasible finite horizon path planning of autonomous RC cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dl.acm.org/doi/abs/10.1145/2728606.2728620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path Planning and Control for Autonomous Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.research-collection.ethz.ch/handle/20.500.11850/302942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Noncooperative Game Approach to Autonomous Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore-ieee-org.proxy.library.upenn.edu/document/8643396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williams Grady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Rally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive driving with model predictive path integral control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/7487277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arslan Oktay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling-based algorithms for optimal motion planning using closed-loop prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/7989581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Changxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail Braking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-Time Trail-Braking Maneuver Generation for Off-Road Vehicle Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8431620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Speed Cornering for Autonomous Off-Road Rally Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8910615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPC + Game Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomous Racing with AutoRally Vehicles and Differential Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/abs/1707.04540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinha Aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Balancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormulaZero: Distributionally Robust Online Adaptation via Offline Population Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Mangharm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://proceedings.mlr.press/v119/sinha20a.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulsara Ardashir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstacle Avoidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstacle Avoidance Using Model Predictive Control: An Implementation and Validation Study Using Scaled Vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sae.org/publications/technical-papers/content/2020-01-0109/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evans Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Navigation to Racing: Reward Signal Design for Autonomous Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/abs/2103.10098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joglekar Ajinkya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusing Offline and Online Trajectory Optimization Techniques for Goal-to-Goal Navigation of a Scaled Autonomous Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sae.org/publications/technical-papers/content/2021-01-0097/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep RL + Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomous Obstacle Avoidance by Learning Policies for Reference Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/pdf/2102.11042.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wang Mingyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonlinear receding horizon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Theoretic Motion Planning for Multi-robot Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://link.springer.com/chapter/10.1007%2F978-3-030-05816-6_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcal Eugenio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPV-MPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPV-MP planning for autonomous racing vehicles considering obstacles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0921889019304877?casa_token=lIEIomm8KuYAAAAA:dC1T7cogNxWDTxFk_3dwtXevT--hcbvF_Bk1HI2n80K5lHwScN2xQ0BywYpy59N_d4KCqyZ0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kloeser Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Planning&amp;Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMPC for Racing Using a Singularity-Free Path-Parametric Model with Obstacle Avoidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www-sciencedirect-com.proxy.library.upenn.edu/science/article/pii/S2405896320317845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwarting Wilko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief-space planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic Dynamic Games in Belief Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1109/TRO.2021.3075376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theodosis Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raceline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generating a Racing Line for an Autonomous Racecar Using Professional Driving Techniques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Gerdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://asmedigitalcollection.asme.org/DSCC/proceedings-abstract/DSCC2011/853/353667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonlinear Optimization of a Racing Line for an Autonomous Racecar Using Professional Driving Techniques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://asmedigitalcollection.asme.org/DSCC/proceedings-abstract/DSCC2012-MOVIC2012/235/229273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapania Nitin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Sequential Two-Step Algorithm for Fast Generation of Vehicle Racing Trajectories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://asmedigitalcollection.asme.org/dynamicsystems/article-abstract/138/9/091005/384344/A-Sequential-Two-Step-Algorithm-for-Fast?redirectedFrom=fulltext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funke Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evasive Maneuvers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collision Avoidance and Stabilization for Autonomous Vehicles in Emergency Scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/7585053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subosits John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the Racetrack to the Road: Real-Time Trajectory Replanning for Autonomous Driving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8671749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Additional Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model fidelity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacts of Model Fidelity on Trajectory Optimization for Autonomous Vehicles in Extreme Maneuvers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9325924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gottmann Frieder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Influence of Rear Axle Steering and Modeling Depth on a Model Based Racing Line Generation for Autonomous Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8511508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heilmeier Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum curcature trajectory planning and control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tandfonline.com/doi/10.1080/00423114.2019.1631455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrmann Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum-Time + Minimum Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy management strategy for an autonomous electric racecar using optimal control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilayer graph-based trajectory planning for race vehicles in dynamic scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermansdorfer Leonhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 -  Additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A concept for estimation and prediction of the tire-road friction potential for an autonomous racecar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Race-Time Planning-Strategy for an Autonomous Electric Racecar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-Time Adaptive Velocity Optimization for Autonomous Electric Cars at the Limits of Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9310276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formal Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Verification Concept for Autonomous Vehicles–Illustrative Study for a Trajectory Planning Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caporale Danilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Planning and Control System for Self-Driving Racing Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8548444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christ Fabian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time-optimal trajectory planning for a race car considering variable tyre-road friction coefficients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tandfonline.com/doi/abs/10.1080/00423114.2019.1704804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Linie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter/Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth Reference Line Generation for a Race Track with Gates based on Defined Borders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore-ieee-org.proxy.library.upenn.edu/document/9304722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Verification Enabling Approval of Driving Functions—Implementation for a Planner of an Autonomous Race Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9424710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liniger Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:43 car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization-based autonomous racing of 1:43 scale RC cars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander Liniger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/abs/10.1002/oca.2123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPC Viability Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A viability approach for fast recursive feasible finite horizon path planning of autonomous RC cars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dl.acm.org/doi/abs/10.1145/2728606.2728620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path Planning and Control for Autonomous Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.research-collection.ethz.ch/handle/20.500.11850/302942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Noncooperative Game Approach to Autonomous Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore-ieee-org.proxy.library.upenn.edu/document/8643396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Williams Grady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Rally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive driving with model predictive path integral control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/document/7487277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arslan Oktay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling-based algorithms for optimal motion planning using closed-loop prediction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/document/7989581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Changxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail Braking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-Time Trail-Braking Maneuver Generation for Off-Road Vehicle Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8431620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-Speed Cornering for Autonomous Off-Road Rally Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8910615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPC + Game Theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomous Racing with AutoRally Vehicles and Differential Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arxiv.org/abs/1707.04540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinha Aman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Balancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FormulaZero: Distributionally Robust Online Adaptation via Offline Population Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahul Mangharm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://proceedings.mlr.press/v119/sinha20a.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulsara Ardashir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstacle Avoidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstacle Avoidance Using Model Predictive Control: An Implementation and Validation Study Using Scaled Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sae.org/publications/technical-papers/content/2020-01-0109/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evans Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Navigation to Racing: Reward Signal Design for Autonomous Racing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arxiv.org/abs/2103.10098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joglekar Ajinkya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusing Offline and Online Trajectory Optimization Techniques for Goal-to-Goal Navigation of a Scaled Autonomous Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sae.org/publications/technical-papers/content/2021-01-0097/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep RL + Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomous Obstacle Avoidance by Learning Policies for Reference Modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arxiv.org/pdf/2102.11042.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">F1TENTH-Other</t>
@@ -2973,7 +2976,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3162,11 +3165,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="56638806"/>
-        <c:axId val="65190161"/>
+        <c:axId val="68410759"/>
+        <c:axId val="67357689"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56638806"/>
+        <c:axId val="68410759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3244,13 +3247,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65190161"/>
+        <c:crossAx val="67357689"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65190161"/>
+        <c:axId val="67357689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56638806"/>
+        <c:crossAx val="68410759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3401,8 +3404,8 @@
   </sheetPr>
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6776,7 +6779,7 @@
         <v>2019</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>142</v>
@@ -6803,16 +6806,16 @@
         <v>88</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6820,7 +6823,7 @@
         <v>2021</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>142</v>
@@ -6847,16 +6850,16 @@
         <v>88</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6864,7 +6867,7 @@
         <v>2020</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>142</v>
@@ -6891,13 +6894,13 @@
         <v>88</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6933,13 +6936,13 @@
         <v>97</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6947,7 +6950,7 @@
         <v>2021</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>142</v>
@@ -6977,13 +6980,13 @@
         <v>97</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6991,7 +6994,7 @@
         <v>2020</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>142</v>
@@ -7003,7 +7006,7 @@
         <v>144</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>21</v>
@@ -7021,10 +7024,10 @@
         <v>97</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7032,19 +7035,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>21</v>
@@ -7062,13 +7065,13 @@
         <v>22</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7076,19 +7079,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -7106,13 +7109,13 @@
         <v>22</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7120,19 +7123,19 @@
         <v>2020</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
@@ -7150,13 +7153,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7164,19 +7167,19 @@
         <v>2020</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>21</v>
@@ -7194,13 +7197,13 @@
         <v>22</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7208,19 +7211,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
@@ -7238,10 +7241,10 @@
         <v>22</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7249,19 +7252,19 @@
         <v>2018</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -7279,11 +7282,11 @@
         <v>22</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7293,19 +7296,19 @@
         <v>2018</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -7323,11 +7326,11 @@
         <v>22</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7337,19 +7340,19 @@
         <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
@@ -7367,11 +7370,11 @@
         <v>22</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7381,19 +7384,19 @@
         <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -7411,11 +7414,11 @@
         <v>22</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7425,19 +7428,19 @@
         <v>2020</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>21</v>
@@ -7455,11 +7458,11 @@
         <v>22</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7472,16 +7475,16 @@
         <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>21</v>
@@ -7499,11 +7502,11 @@
         <v>22</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7513,19 +7516,19 @@
         <v>2021</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>21</v>
@@ -7543,11 +7546,11 @@
         <v>22</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7557,19 +7560,19 @@
         <v>2021</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>21</v>
@@ -7584,16 +7587,16 @@
         <v>32</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7603,19 +7606,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>31</v>
@@ -7630,14 +7633,14 @@
         <v>88</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7647,19 +7650,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>31</v>
@@ -7677,13 +7680,13 @@
         <v>296</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>298</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7693,19 +7696,19 @@
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -7723,11 +7726,11 @@
         <v>309</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7737,19 +7740,19 @@
         <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -7767,11 +7770,11 @@
         <v>309</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7781,19 +7784,19 @@
         <v>2020</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>21</v>
@@ -7811,11 +7814,11 @@
         <v>309</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7825,19 +7828,19 @@
         <v>2020</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>21</v>
@@ -7852,14 +7855,14 @@
         <v>88</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7872,16 +7875,16 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>21</v>
@@ -7899,11 +7902,11 @@
         <v>89</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -7913,19 +7916,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>21</v>
@@ -7943,13 +7946,13 @@
         <v>22</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7957,19 +7960,19 @@
         <v>2005</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>21</v>
@@ -7987,11 +7990,11 @@
         <v>22</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -8001,19 +8004,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>21</v>
@@ -8031,10 +8034,10 @@
         <v>22</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8042,19 +8045,19 @@
         <v>2020</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>21</v>
@@ -8066,16 +8069,16 @@
         <v>31</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8089,11 +8092,11 @@
         <v>250</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>31</v>
@@ -8111,13 +8114,13 @@
         <v>32</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -8127,19 +8130,19 @@
         <v>2013</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>31</v>
@@ -8157,13 +8160,13 @@
         <v>32</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8171,19 +8174,19 @@
         <v>2016</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>31</v>
@@ -8201,13 +8204,13 @@
         <v>32</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8215,7 +8218,7 @@
         <v>2017</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>250</v>
@@ -8224,10 +8227,10 @@
         <v>251</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>31</v>
@@ -8245,13 +8248,13 @@
         <v>32</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8259,7 +8262,7 @@
         <v>2019</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>250</v>
@@ -8268,7 +8271,7 @@
         <v>251</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>107</v>
@@ -8289,13 +8292,13 @@
         <v>32</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8309,13 +8312,13 @@
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>22</v>
@@ -8333,13 +8336,13 @@
         <v>38</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8353,13 +8356,13 @@
         <v>250</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>31</v>
@@ -8377,13 +8380,13 @@
         <v>38</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8397,13 +8400,13 @@
         <v>250</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>31</v>
@@ -8421,13 +8424,13 @@
         <v>38</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8441,13 +8444,13 @@
         <v>250</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>21</v>
@@ -8465,13 +8468,13 @@
         <v>38</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -8487,13 +8490,13 @@
         <v>250</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>22</v>
@@ -8511,13 +8514,13 @@
         <v>38</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
@@ -8533,13 +8536,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>22</v>
@@ -8557,13 +8560,13 @@
         <v>38</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -8582,7 +8585,7 @@
         <v>251</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>107</v>
@@ -8603,13 +8606,13 @@
         <v>38</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8623,13 +8626,13 @@
         <v>250</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>21</v>
@@ -8647,11 +8650,11 @@
         <v>38</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -8667,13 +8670,13 @@
         <v>250</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>31</v>
@@ -8691,10 +8694,10 @@
         <v>38</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8702,7 +8705,7 @@
         <v>2020</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>250</v>
@@ -8711,7 +8714,7 @@
         <v>251</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>107</v>
@@ -8732,11 +8735,11 @@
         <v>38</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -8746,19 +8749,19 @@
         <v>2021</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>31</v>
@@ -8776,11 +8779,11 @@
         <v>38</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -8799,10 +8802,10 @@
         <v>251</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>21</v>
@@ -8820,13 +8823,13 @@
         <v>309</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8843,7 +8846,7 @@
         <v>251</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>107</v>
@@ -8864,11 +8867,11 @@
         <v>309</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -8878,19 +8881,19 @@
         <v>2020</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>21</v>
@@ -8908,13 +8911,13 @@
         <v>89</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8922,19 +8925,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>31</v>
@@ -8952,13 +8955,13 @@
         <v>97</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M129" s="5" t="s">
         <v>298</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8966,19 +8969,19 @@
         <v>2017</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>21</v>
@@ -8996,10 +8999,10 @@
         <v>97</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9007,19 +9010,19 @@
         <v>2018</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>31</v>
@@ -9037,10 +9040,10 @@
         <v>97</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9048,19 +9051,19 @@
         <v>2019</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>21</v>
@@ -9078,10 +9081,10 @@
         <v>97</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9089,19 +9092,19 @@
         <v>2019</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>31</v>
@@ -9119,10 +9122,10 @@
         <v>97</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9130,19 +9133,19 @@
         <v>2019</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>21</v>
@@ -9160,11 +9163,11 @@
         <v>97</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M134" s="5"/>
       <c r="N134" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -9174,19 +9177,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>31</v>
@@ -9204,11 +9207,11 @@
         <v>97</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M135" s="5"/>
       <c r="N135" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
@@ -9218,19 +9221,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>31</v>
@@ -9248,11 +9251,11 @@
         <v>97</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -9262,19 +9265,19 @@
         <v>2020</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>21</v>
@@ -9289,13 +9292,13 @@
         <v>32</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9303,19 +9306,19 @@
         <v>2020</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>21</v>
@@ -9330,13 +9333,13 @@
         <v>32</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9344,19 +9347,19 @@
         <v>2021</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>31</v>
@@ -9371,16 +9374,16 @@
         <v>32</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M139" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
@@ -9390,19 +9393,19 @@
         <v>2019</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>21</v>
@@ -9417,14 +9420,14 @@
         <v>88</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M140" s="5"/>
       <c r="N140" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -9434,19 +9437,19 @@
         <v>2020</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>21</v>
@@ -9461,14 +9464,14 @@
         <v>88</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M141" s="5"/>
       <c r="N141" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
@@ -9478,19 +9481,19 @@
         <v>2019</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>21</v>
@@ -9508,13 +9511,13 @@
         <v>309</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M142" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -9524,19 +9527,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>21</v>
@@ -9554,10 +9557,10 @@
         <v>309</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9565,19 +9568,19 @@
         <v>2019</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>21</v>
@@ -9595,13 +9598,13 @@
         <v>89</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
@@ -9611,19 +9614,19 @@
         <v>2019</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>21</v>
@@ -9641,13 +9644,13 @@
         <v>89</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M145" s="5" t="s">
         <v>329</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
@@ -9657,19 +9660,19 @@
         <v>2020</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>21</v>
@@ -9687,13 +9690,13 @@
         <v>89</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M146" s="5" t="s">
         <v>329</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
@@ -9703,19 +9706,19 @@
         <v>2017</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>21</v>
@@ -9730,14 +9733,14 @@
         <v>88</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M147" s="5"/>
       <c r="N147" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
@@ -9747,19 +9750,19 @@
         <v>2020</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>21</v>
@@ -9774,14 +9777,14 @@
         <v>88</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O148" s="7"/>
       <c r="P148" s="5"/>
@@ -9791,19 +9794,19 @@
         <v>2019</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>21</v>
@@ -9818,14 +9821,14 @@
         <v>88</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M149" s="5"/>
       <c r="N149" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
@@ -9835,19 +9838,19 @@
         <v>2014</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>21</v>
@@ -9862,14 +9865,14 @@
         <v>88</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M150" s="5"/>
       <c r="N150" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
@@ -9879,19 +9882,19 @@
         <v>2014</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>21</v>
@@ -9909,11 +9912,11 @@
         <v>97</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M151" s="5"/>
       <c r="N151" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
@@ -9923,19 +9926,19 @@
         <v>2017</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>31</v>
@@ -9953,11 +9956,11 @@
         <v>97</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
@@ -9970,13 +9973,13 @@
         <v>295</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>21</v>
@@ -9994,13 +9997,13 @@
         <v>22</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10008,13 +10011,13 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>155</v>
@@ -10035,13 +10038,13 @@
         <v>22</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10049,17 +10052,17 @@
         <v>2021</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>21</v>
@@ -10077,13 +10080,13 @@
         <v>22</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10091,40 +10094,40 @@
         <v>2017</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="M156" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="M156" s="8" t="s">
-        <v>611</v>
-      </c>
       <c r="N156" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10132,43 +10135,43 @@
         <v>2017</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="M157" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="M157" s="8" t="s">
-        <v>611</v>
-      </c>
       <c r="N157" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10176,43 +10179,43 @@
         <v>2017</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="M158" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" s="8" t="s">
+      <c r="N158" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="M158" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10220,43 +10223,43 @@
         <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="M159" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="M159" s="8" t="s">
-        <v>611</v>
-      </c>
       <c r="N159" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10264,10 +10267,10 @@
         <v>1989</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>206</v>
@@ -10288,10 +10291,10 @@
         <v>22</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10299,16 +10302,16 @@
         <v>2008</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>21</v>
@@ -10326,10 +10329,10 @@
         <v>22</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10337,16 +10340,16 @@
         <v>2009</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>21</v>
@@ -10364,10 +10367,10 @@
         <v>22</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10378,10 +10381,10 @@
         <v>307</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>155</v>
@@ -10405,7 +10408,7 @@
         <v>310</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10413,10 +10416,10 @@
         <v>2016</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>206</v>
@@ -10440,10 +10443,10 @@
         <v>22</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10451,16 +10454,16 @@
         <v>2017</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>21</v>
@@ -10478,10 +10481,10 @@
         <v>22</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10489,16 +10492,16 @@
         <v>2017</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>21</v>
@@ -10516,10 +10519,10 @@
         <v>22</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N166" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10527,16 +10530,16 @@
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>21</v>
@@ -10554,10 +10557,10 @@
         <v>22</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10565,16 +10568,16 @@
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>21</v>
@@ -10592,10 +10595,10 @@
         <v>22</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10603,13 +10606,13 @@
         <v>2018</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>167</v>
@@ -10630,10 +10633,10 @@
         <v>22</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10641,16 +10644,16 @@
         <v>2018</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>21</v>
@@ -10668,10 +10671,10 @@
         <v>22</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10679,16 +10682,16 @@
         <v>2019</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>21</v>
@@ -10706,10 +10709,10 @@
         <v>22</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10717,14 +10720,14 @@
         <v>2020</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>107</v>
@@ -10745,13 +10748,13 @@
         <v>22</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10759,17 +10762,17 @@
         <v>2020</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>21</v>
@@ -10787,13 +10790,13 @@
         <v>22</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10801,17 +10804,17 @@
         <v>2020</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>21</v>
@@ -10829,10 +10832,10 @@
         <v>22</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10840,17 +10843,17 @@
         <v>2020</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>21</v>
@@ -10868,10 +10871,10 @@
         <v>22</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10879,16 +10882,16 @@
         <v>2020</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>21</v>
@@ -10906,10 +10909,10 @@
         <v>22</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10917,17 +10920,17 @@
         <v>2020</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D177" s="8"/>
       <c r="E177" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>21</v>
@@ -10945,10 +10948,10 @@
         <v>22</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10956,14 +10959,14 @@
         <v>2021</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D178" s="8"/>
       <c r="E178" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>219</v>
@@ -10984,10 +10987,10 @@
         <v>22</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10995,14 +10998,14 @@
         <v>2021</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>323</v>
@@ -11020,16 +11023,16 @@
         <v>32</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11037,16 +11040,16 @@
         <v>2010</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>31</v>
@@ -11064,13 +11067,13 @@
         <v>32</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11078,16 +11081,16 @@
         <v>2010</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>317</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>31</v>
@@ -11105,13 +11108,13 @@
         <v>32</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11119,19 +11122,19 @@
         <v>2011</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>31</v>
@@ -11149,13 +11152,13 @@
         <v>32</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M182" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
@@ -11165,13 +11168,13 @@
         <v>2012</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>155</v>
@@ -11192,13 +11195,13 @@
         <v>32</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11206,16 +11209,16 @@
         <v>2012</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>31</v>
@@ -11233,13 +11236,13 @@
         <v>32</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11247,16 +11250,16 @@
         <v>2012</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>31</v>
@@ -11274,13 +11277,13 @@
         <v>32</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11288,16 +11291,16 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>31</v>
@@ -11315,16 +11318,16 @@
         <v>32</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11335,13 +11338,13 @@
         <v>238</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>31</v>
@@ -11359,13 +11362,13 @@
         <v>32</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11376,13 +11379,13 @@
         <v>238</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>31</v>
@@ -11400,13 +11403,13 @@
         <v>32</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11414,16 +11417,16 @@
         <v>2015</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>31</v>
@@ -11441,13 +11444,13 @@
         <v>32</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11455,16 +11458,16 @@
         <v>2016</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>31</v>
@@ -11482,16 +11485,16 @@
         <v>32</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11499,16 +11502,16 @@
         <v>2017</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>31</v>
@@ -11526,13 +11529,13 @@
         <v>32</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11540,16 +11543,16 @@
         <v>2018</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>31</v>
@@ -11567,16 +11570,16 @@
         <v>32</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11584,16 +11587,16 @@
         <v>2018</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>31</v>
@@ -11611,13 +11614,13 @@
         <v>32</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11625,16 +11628,16 @@
         <v>2018</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>31</v>
@@ -11652,13 +11655,13 @@
         <v>32</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11666,16 +11669,16 @@
         <v>2019</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>31</v>
@@ -11693,16 +11696,16 @@
         <v>32</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11710,13 +11713,13 @@
         <v>2019</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>145</v>
@@ -11737,13 +11740,13 @@
         <v>32</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11754,13 +11757,13 @@
         <v>238</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>31</v>
@@ -11778,13 +11781,13 @@
         <v>32</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11795,10 +11798,10 @@
         <v>218</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>219</v>
@@ -11819,13 +11822,13 @@
         <v>32</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11836,13 +11839,13 @@
         <v>71</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>31</v>
@@ -11860,13 +11863,13 @@
         <v>38</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11877,13 +11880,13 @@
         <v>71</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>31</v>
@@ -11901,13 +11904,13 @@
         <v>38</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11915,13 +11918,13 @@
         <v>2017</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>155</v>
@@ -11942,10 +11945,10 @@
         <v>38</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11953,16 +11956,16 @@
         <v>2018</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>31</v>
@@ -11980,10 +11983,10 @@
         <v>38</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11991,13 +11994,13 @@
         <v>2019</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>21</v>
@@ -12015,10 +12018,10 @@
         <v>38</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12029,11 +12032,11 @@
         <v>71</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>155</v>
@@ -12054,10 +12057,10 @@
         <v>38</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12065,13 +12068,13 @@
         <v>2016</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>155</v>
@@ -12092,13 +12095,13 @@
         <v>296</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12109,10 +12112,10 @@
         <v>295</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>155</v>
@@ -12133,13 +12136,13 @@
         <v>296</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M206" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12147,13 +12150,13 @@
         <v>2018</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>145</v>
@@ -12174,13 +12177,13 @@
         <v>296</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M207" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12191,13 +12194,13 @@
         <v>307</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>21</v>
@@ -12215,13 +12218,13 @@
         <v>309</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12232,10 +12235,10 @@
         <v>307</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>155</v>
@@ -12256,10 +12259,10 @@
         <v>309</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12270,10 +12273,10 @@
         <v>307</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>155</v>
@@ -12294,10 +12297,10 @@
         <v>309</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12308,10 +12311,10 @@
         <v>307</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>21</v>
@@ -12329,10 +12332,10 @@
         <v>309</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12340,13 +12343,13 @@
         <v>2019</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F212" s="8" t="s">
         <v>155</v>
@@ -12367,10 +12370,10 @@
         <v>309</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12378,16 +12381,16 @@
         <v>2019</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>21</v>
@@ -12405,10 +12408,10 @@
         <v>309</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12416,14 +12419,14 @@
         <v>2021</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>155</v>
@@ -12444,10 +12447,10 @@
         <v>309</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12455,17 +12458,17 @@
         <v>2021</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D215" s="8"/>
       <c r="E215" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>21</v>
@@ -12483,13 +12486,13 @@
         <v>89</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12497,14 +12500,14 @@
         <v>2021</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F216" s="8"/>
       <c r="G216" s="8" t="s">
@@ -12523,13 +12526,13 @@
         <v>89</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12537,10 +12540,10 @@
         <v>2020</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8" t="s">
@@ -12565,13 +12568,13 @@
         <v>89</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M217" s="8" t="s">
         <v>329</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12579,14 +12582,14 @@
         <v>2020</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F218" s="8" t="s">
         <v>107</v>
@@ -12607,10 +12610,10 @@
         <v>89</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12618,14 +12621,14 @@
         <v>2020</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>155</v>
@@ -12646,10 +12649,10 @@
         <v>89</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12657,17 +12660,17 @@
         <v>2020</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>21</v>
@@ -12685,10 +12688,10 @@
         <v>89</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12696,16 +12699,16 @@
         <v>2017</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>21</v>
@@ -12720,16 +12723,16 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12737,16 +12740,16 @@
         <v>2020</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>21</v>
@@ -12761,16 +12764,16 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12778,16 +12781,16 @@
         <v>2019</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>31</v>
@@ -12805,13 +12808,13 @@
         <v>97</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M223" s="8" t="s">
         <v>298</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12819,16 +12822,16 @@
         <v>2017</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>31</v>
@@ -12846,10 +12849,10 @@
         <v>97</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12857,13 +12860,13 @@
         <v>2018</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>107</v>
@@ -12884,10 +12887,10 @@
         <v>97</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12895,13 +12898,13 @@
         <v>2018</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>283</v>
@@ -12922,10 +12925,10 @@
         <v>97</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12933,16 +12936,16 @@
         <v>2019</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>31</v>
@@ -12960,10 +12963,10 @@
         <v>97</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12971,14 +12974,14 @@
         <v>2020</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D228" s="8"/>
       <c r="E228" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>155</v>
@@ -12999,10 +13002,10 @@
         <v>97</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -13109,13 +13112,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13256,15 +13259,15 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>835</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>25</v>
@@ -13272,7 +13275,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -13280,7 +13283,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -13288,7 +13291,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -13296,18 +13299,18 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>14</v>
@@ -13315,7 +13318,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
@@ -13331,7 +13334,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13339,7 +13342,7 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>9</v>
@@ -13371,7 +13374,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>13</v>
@@ -13379,63 +13382,63 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>852</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="858">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gottmann Frieder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model fidelity (rear wheel steering)</t>
   </si>
   <si>
     <t xml:space="preserve">On the Influence of Rear Axle Steering and Modeling Depth on a Model Based Racing Line Generation for Autonomous Racing</t>
@@ -2976,7 +2979,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3165,11 +3168,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68410759"/>
-        <c:axId val="67357689"/>
+        <c:axId val="95019024"/>
+        <c:axId val="40264096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68410759"/>
+        <c:axId val="95019024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3247,13 +3250,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67357689"/>
+        <c:crossAx val="40264096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67357689"/>
+        <c:axId val="40264096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68410759"/>
+        <c:crossAx val="95019024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3405,7 +3408,7 @@
   <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5671,13 +5674,13 @@
         <v>255</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>167</v>
@@ -5698,10 +5701,10 @@
         <v>32</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5709,7 +5712,7 @@
         <v>2019</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>142</v>
@@ -5739,13 +5742,13 @@
         <v>38</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5753,7 +5756,7 @@
         <v>2019</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>142</v>
@@ -5762,7 +5765,7 @@
         <v>165</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>167</v>
@@ -5783,13 +5786,13 @@
         <v>38</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5809,7 +5812,7 @@
         <v>144</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>31</v>
@@ -5827,13 +5830,13 @@
         <v>38</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5841,16 +5844,16 @@
         <v>2019</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>107</v>
@@ -5871,13 +5874,13 @@
         <v>38</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5885,7 +5888,7 @@
         <v>2020</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>142</v>
@@ -5894,7 +5897,7 @@
         <v>165</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>167</v>
@@ -5915,13 +5918,13 @@
         <v>38</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5929,7 +5932,7 @@
         <v>2020</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>142</v>
@@ -5938,7 +5941,7 @@
         <v>165</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>167</v>
@@ -5959,13 +5962,13 @@
         <v>38</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5979,13 +5982,13 @@
         <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
@@ -6003,13 +6006,13 @@
         <v>38</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6017,7 +6020,7 @@
         <v>2018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>142</v>
@@ -6029,7 +6032,7 @@
         <v>144</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>31</v>
@@ -6047,10 +6050,10 @@
         <v>38</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6058,7 +6061,7 @@
         <v>2019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>142</v>
@@ -6088,10 +6091,10 @@
         <v>38</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6108,10 +6111,10 @@
         <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>31</v>
@@ -6129,10 +6132,10 @@
         <v>38</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6146,13 +6149,13 @@
         <v>142</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>21</v>
@@ -6170,10 +6173,10 @@
         <v>38</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6181,7 +6184,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>142</v>
@@ -6208,16 +6211,16 @@
         <v>88</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6225,7 +6228,7 @@
         <v>2015</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>142</v>
@@ -6237,7 +6240,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -6252,16 +6255,16 @@
         <v>88</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6269,7 +6272,7 @@
         <v>2018</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>142</v>
@@ -6293,16 +6296,16 @@
         <v>88</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6310,7 +6313,7 @@
         <v>2020</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>142</v>
@@ -6334,16 +6337,16 @@
         <v>88</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6351,7 +6354,7 @@
         <v>2016</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>142</v>
@@ -6363,7 +6366,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>21</v>
@@ -6378,16 +6381,16 @@
         <v>88</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6395,7 +6398,7 @@
         <v>2017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>142</v>
@@ -6407,7 +6410,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>21</v>
@@ -6422,16 +6425,16 @@
         <v>88</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6439,7 +6442,7 @@
         <v>2018</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>142</v>
@@ -6448,10 +6451,10 @@
         <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>21</v>
@@ -6466,16 +6469,16 @@
         <v>88</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6483,7 +6486,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>142</v>
@@ -6492,10 +6495,10 @@
         <v>143</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
@@ -6510,16 +6513,16 @@
         <v>88</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6527,7 +6530,7 @@
         <v>2017</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>142</v>
@@ -6539,7 +6542,7 @@
         <v>159</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>21</v>
@@ -6554,14 +6557,14 @@
         <v>88</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -6571,7 +6574,7 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>142</v>
@@ -6580,7 +6583,7 @@
         <v>143</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>176</v>
@@ -6601,13 +6604,13 @@
         <v>89</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6615,7 +6618,7 @@
         <v>2020</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>142</v>
@@ -6624,7 +6627,7 @@
         <v>143</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>155</v>
@@ -6645,10 +6648,10 @@
         <v>89</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6656,7 +6659,7 @@
         <v>2021</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>142</v>
@@ -6668,7 +6671,7 @@
         <v>144</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>21</v>
@@ -6686,10 +6689,10 @@
         <v>89</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6697,7 +6700,7 @@
         <v>2021</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>142</v>
@@ -6709,7 +6712,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>21</v>
@@ -6727,10 +6730,10 @@
         <v>89</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6738,7 +6741,7 @@
         <v>2021</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>142</v>
@@ -6747,10 +6750,10 @@
         <v>143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>21</v>
@@ -6768,10 +6771,10 @@
         <v>89</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6779,7 +6782,7 @@
         <v>2019</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>142</v>
@@ -6806,16 +6809,16 @@
         <v>88</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6823,7 +6826,7 @@
         <v>2021</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>142</v>
@@ -6850,16 +6853,16 @@
         <v>88</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6867,7 +6870,7 @@
         <v>2020</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>142</v>
@@ -6894,13 +6897,13 @@
         <v>88</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6936,13 +6939,13 @@
         <v>97</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6950,7 +6953,7 @@
         <v>2021</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>142</v>
@@ -6980,13 +6983,13 @@
         <v>97</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6994,7 +6997,7 @@
         <v>2020</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>142</v>
@@ -7006,7 +7009,7 @@
         <v>144</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>21</v>
@@ -7024,10 +7027,10 @@
         <v>97</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7035,19 +7038,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>21</v>
@@ -7065,13 +7068,13 @@
         <v>22</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7079,19 +7082,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -7109,13 +7112,13 @@
         <v>22</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7123,19 +7126,19 @@
         <v>2020</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
@@ -7153,13 +7156,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7167,19 +7170,19 @@
         <v>2020</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>21</v>
@@ -7197,13 +7200,13 @@
         <v>22</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7211,19 +7214,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
@@ -7241,10 +7244,10 @@
         <v>22</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7252,19 +7255,19 @@
         <v>2018</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -7282,11 +7285,11 @@
         <v>22</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7296,19 +7299,19 @@
         <v>2018</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -7326,11 +7329,11 @@
         <v>22</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7340,19 +7343,19 @@
         <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
@@ -7370,11 +7373,11 @@
         <v>22</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7384,19 +7387,19 @@
         <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -7414,11 +7417,11 @@
         <v>22</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7428,19 +7431,19 @@
         <v>2020</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>21</v>
@@ -7458,11 +7461,11 @@
         <v>22</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7475,16 +7478,16 @@
         <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>21</v>
@@ -7502,11 +7505,11 @@
         <v>22</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7516,19 +7519,19 @@
         <v>2021</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>21</v>
@@ -7546,11 +7549,11 @@
         <v>22</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7560,19 +7563,19 @@
         <v>2021</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>21</v>
@@ -7587,16 +7590,16 @@
         <v>32</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7606,19 +7609,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>31</v>
@@ -7633,14 +7636,14 @@
         <v>88</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7650,19 +7653,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>31</v>
@@ -7677,16 +7680,16 @@
         <v>88</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7696,19 +7699,19 @@
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -7723,14 +7726,14 @@
         <v>88</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7740,19 +7743,19 @@
         <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -7767,14 +7770,14 @@
         <v>88</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7784,19 +7787,19 @@
         <v>2020</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>21</v>
@@ -7811,14 +7814,14 @@
         <v>88</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7828,19 +7831,19 @@
         <v>2020</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>21</v>
@@ -7855,14 +7858,14 @@
         <v>88</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7875,16 +7878,16 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>21</v>
@@ -7902,11 +7905,11 @@
         <v>89</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -7916,19 +7919,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>21</v>
@@ -7946,13 +7949,13 @@
         <v>22</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7960,19 +7963,19 @@
         <v>2005</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>21</v>
@@ -7990,11 +7993,11 @@
         <v>22</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -8004,19 +8007,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>21</v>
@@ -8034,10 +8037,10 @@
         <v>22</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8045,19 +8048,19 @@
         <v>2020</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>21</v>
@@ -8069,16 +8072,16 @@
         <v>31</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8092,11 +8095,11 @@
         <v>250</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>31</v>
@@ -8114,13 +8117,13 @@
         <v>32</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -8130,19 +8133,19 @@
         <v>2013</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>31</v>
@@ -8160,13 +8163,13 @@
         <v>32</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8174,19 +8177,19 @@
         <v>2016</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>31</v>
@@ -8204,13 +8207,13 @@
         <v>32</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8218,7 +8221,7 @@
         <v>2017</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>250</v>
@@ -8227,10 +8230,10 @@
         <v>251</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>31</v>
@@ -8248,13 +8251,13 @@
         <v>32</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8262,7 +8265,7 @@
         <v>2019</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>250</v>
@@ -8271,7 +8274,7 @@
         <v>251</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>107</v>
@@ -8292,13 +8295,13 @@
         <v>32</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8312,13 +8315,13 @@
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>22</v>
@@ -8336,13 +8339,13 @@
         <v>38</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8356,13 +8359,13 @@
         <v>250</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>31</v>
@@ -8380,13 +8383,13 @@
         <v>38</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8400,13 +8403,13 @@
         <v>250</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>31</v>
@@ -8424,13 +8427,13 @@
         <v>38</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8438,19 +8441,19 @@
         <v>2019</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>21</v>
@@ -8468,13 +8471,13 @@
         <v>38</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -8484,19 +8487,19 @@
         <v>2020</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>22</v>
@@ -8514,13 +8517,13 @@
         <v>38</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
@@ -8536,13 +8539,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>22</v>
@@ -8560,13 +8563,13 @@
         <v>38</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -8576,7 +8579,7 @@
         <v>2021</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>250</v>
@@ -8585,7 +8588,7 @@
         <v>251</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>107</v>
@@ -8606,13 +8609,13 @@
         <v>38</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8620,19 +8623,19 @@
         <v>2018</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>21</v>
@@ -8650,11 +8653,11 @@
         <v>38</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -8664,19 +8667,19 @@
         <v>2019</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>31</v>
@@ -8694,10 +8697,10 @@
         <v>38</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8705,7 +8708,7 @@
         <v>2020</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>250</v>
@@ -8714,7 +8717,7 @@
         <v>251</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>107</v>
@@ -8735,11 +8738,11 @@
         <v>38</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -8749,19 +8752,19 @@
         <v>2021</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>31</v>
@@ -8779,11 +8782,11 @@
         <v>38</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -8793,7 +8796,7 @@
         <v>2017</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>250</v>
@@ -8802,10 +8805,10 @@
         <v>251</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>21</v>
@@ -8820,16 +8823,16 @@
         <v>88</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8837,7 +8840,7 @@
         <v>2019</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>250</v>
@@ -8846,7 +8849,7 @@
         <v>251</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>107</v>
@@ -8864,14 +8867,14 @@
         <v>88</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -8881,19 +8884,19 @@
         <v>2020</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>21</v>
@@ -8911,13 +8914,13 @@
         <v>89</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8925,19 +8928,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>31</v>
@@ -8955,13 +8958,13 @@
         <v>97</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="130" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8969,19 +8972,19 @@
         <v>2017</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>21</v>
@@ -8999,10 +9002,10 @@
         <v>97</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9010,19 +9013,19 @@
         <v>2018</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>31</v>
@@ -9040,10 +9043,10 @@
         <v>97</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9051,19 +9054,19 @@
         <v>2019</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>21</v>
@@ -9081,10 +9084,10 @@
         <v>97</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9092,19 +9095,19 @@
         <v>2019</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>31</v>
@@ -9122,10 +9125,10 @@
         <v>97</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9133,19 +9136,19 @@
         <v>2019</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>21</v>
@@ -9163,11 +9166,11 @@
         <v>97</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M134" s="5"/>
       <c r="N134" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -9177,19 +9180,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>31</v>
@@ -9207,11 +9210,11 @@
         <v>97</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M135" s="5"/>
       <c r="N135" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
@@ -9221,19 +9224,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>31</v>
@@ -9251,11 +9254,11 @@
         <v>97</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -9265,19 +9268,19 @@
         <v>2020</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>21</v>
@@ -9292,13 +9295,13 @@
         <v>32</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9306,19 +9309,19 @@
         <v>2020</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>21</v>
@@ -9333,13 +9336,13 @@
         <v>32</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9347,19 +9350,19 @@
         <v>2021</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>31</v>
@@ -9374,16 +9377,16 @@
         <v>32</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M139" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
@@ -9393,19 +9396,19 @@
         <v>2019</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>21</v>
@@ -9420,14 +9423,14 @@
         <v>88</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M140" s="5"/>
       <c r="N140" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -9437,19 +9440,19 @@
         <v>2020</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>21</v>
@@ -9464,14 +9467,14 @@
         <v>88</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M141" s="5"/>
       <c r="N141" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
@@ -9481,19 +9484,19 @@
         <v>2019</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>21</v>
@@ -9508,16 +9511,16 @@
         <v>88</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M142" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -9527,19 +9530,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>21</v>
@@ -9554,13 +9557,13 @@
         <v>88</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9568,19 +9571,19 @@
         <v>2019</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>21</v>
@@ -9598,13 +9601,13 @@
         <v>89</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
@@ -9614,19 +9617,19 @@
         <v>2019</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>21</v>
@@ -9644,13 +9647,13 @@
         <v>89</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
@@ -9660,19 +9663,19 @@
         <v>2020</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>21</v>
@@ -9690,13 +9693,13 @@
         <v>89</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
@@ -9706,19 +9709,19 @@
         <v>2017</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>21</v>
@@ -9733,14 +9736,14 @@
         <v>88</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M147" s="5"/>
       <c r="N147" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
@@ -9750,19 +9753,19 @@
         <v>2020</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>21</v>
@@ -9777,14 +9780,14 @@
         <v>88</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O148" s="7"/>
       <c r="P148" s="5"/>
@@ -9794,19 +9797,19 @@
         <v>2019</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>21</v>
@@ -9821,14 +9824,14 @@
         <v>88</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M149" s="5"/>
       <c r="N149" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
@@ -9838,19 +9841,19 @@
         <v>2014</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>21</v>
@@ -9865,14 +9868,14 @@
         <v>88</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M150" s="5"/>
       <c r="N150" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
@@ -9882,19 +9885,19 @@
         <v>2014</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>21</v>
@@ -9912,11 +9915,11 @@
         <v>97</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M151" s="5"/>
       <c r="N151" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
@@ -9926,19 +9929,19 @@
         <v>2017</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>31</v>
@@ -9956,11 +9959,11 @@
         <v>97</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
@@ -9970,16 +9973,16 @@
         <v>2019</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>21</v>
@@ -9997,13 +10000,13 @@
         <v>22</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10011,13 +10014,13 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>155</v>
@@ -10038,13 +10041,13 @@
         <v>22</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10052,17 +10055,17 @@
         <v>2021</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>21</v>
@@ -10080,13 +10083,13 @@
         <v>22</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10094,40 +10097,40 @@
         <v>2017</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="M156" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="M156" s="8" t="s">
-        <v>612</v>
-      </c>
       <c r="N156" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10135,43 +10138,43 @@
         <v>2017</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M157" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="M157" s="8" t="s">
-        <v>612</v>
-      </c>
       <c r="N157" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10179,43 +10182,43 @@
         <v>2017</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M158" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" s="8" t="s">
+      <c r="N158" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="M158" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10223,43 +10226,43 @@
         <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="M159" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="M159" s="8" t="s">
-        <v>612</v>
-      </c>
       <c r="N159" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10267,10 +10270,10 @@
         <v>1989</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>206</v>
@@ -10291,10 +10294,10 @@
         <v>22</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10302,16 +10305,16 @@
         <v>2008</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>21</v>
@@ -10329,10 +10332,10 @@
         <v>22</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10340,16 +10343,16 @@
         <v>2009</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>21</v>
@@ -10367,10 +10370,10 @@
         <v>22</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10378,13 +10381,13 @@
         <v>2015</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>155</v>
@@ -10405,10 +10408,10 @@
         <v>22</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10416,10 +10419,10 @@
         <v>2016</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>206</v>
@@ -10443,10 +10446,10 @@
         <v>22</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10454,16 +10457,16 @@
         <v>2017</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>21</v>
@@ -10481,10 +10484,10 @@
         <v>22</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10492,16 +10495,16 @@
         <v>2017</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>21</v>
@@ -10519,10 +10522,10 @@
         <v>22</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N166" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10530,16 +10533,16 @@
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>21</v>
@@ -10557,10 +10560,10 @@
         <v>22</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10568,16 +10571,16 @@
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>21</v>
@@ -10595,10 +10598,10 @@
         <v>22</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10606,13 +10609,13 @@
         <v>2018</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>167</v>
@@ -10633,10 +10636,10 @@
         <v>22</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10644,16 +10647,16 @@
         <v>2018</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>21</v>
@@ -10671,10 +10674,10 @@
         <v>22</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10682,16 +10685,16 @@
         <v>2019</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>21</v>
@@ -10709,10 +10712,10 @@
         <v>22</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10720,14 +10723,14 @@
         <v>2020</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>107</v>
@@ -10748,13 +10751,13 @@
         <v>22</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10762,17 +10765,17 @@
         <v>2020</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>21</v>
@@ -10790,13 +10793,13 @@
         <v>22</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10804,17 +10807,17 @@
         <v>2020</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>21</v>
@@ -10832,10 +10835,10 @@
         <v>22</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10843,17 +10846,17 @@
         <v>2020</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>21</v>
@@ -10871,10 +10874,10 @@
         <v>22</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10882,16 +10885,16 @@
         <v>2020</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>21</v>
@@ -10909,10 +10912,10 @@
         <v>22</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10920,17 +10923,17 @@
         <v>2020</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D177" s="8"/>
       <c r="E177" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>21</v>
@@ -10948,10 +10951,10 @@
         <v>22</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10959,14 +10962,14 @@
         <v>2021</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D178" s="8"/>
       <c r="E178" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>219</v>
@@ -10987,10 +10990,10 @@
         <v>22</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10998,17 +11001,17 @@
         <v>2021</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>21</v>
@@ -11023,16 +11026,16 @@
         <v>32</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11040,16 +11043,16 @@
         <v>2010</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>31</v>
@@ -11067,13 +11070,13 @@
         <v>32</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11081,16 +11084,16 @@
         <v>2010</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>31</v>
@@ -11108,13 +11111,13 @@
         <v>32</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11122,19 +11125,19 @@
         <v>2011</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>31</v>
@@ -11152,13 +11155,13 @@
         <v>32</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M182" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
@@ -11168,13 +11171,13 @@
         <v>2012</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>155</v>
@@ -11195,13 +11198,13 @@
         <v>32</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11209,16 +11212,16 @@
         <v>2012</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>31</v>
@@ -11236,13 +11239,13 @@
         <v>32</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11250,16 +11253,16 @@
         <v>2012</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>31</v>
@@ -11277,13 +11280,13 @@
         <v>32</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11291,16 +11294,16 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>31</v>
@@ -11318,16 +11321,16 @@
         <v>32</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11338,13 +11341,13 @@
         <v>238</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>31</v>
@@ -11362,13 +11365,13 @@
         <v>32</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11379,13 +11382,13 @@
         <v>238</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>31</v>
@@ -11403,13 +11406,13 @@
         <v>32</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11417,16 +11420,16 @@
         <v>2015</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>31</v>
@@ -11444,13 +11447,13 @@
         <v>32</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11458,16 +11461,16 @@
         <v>2016</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>31</v>
@@ -11485,16 +11488,16 @@
         <v>32</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11502,16 +11505,16 @@
         <v>2017</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>31</v>
@@ -11529,13 +11532,13 @@
         <v>32</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11543,16 +11546,16 @@
         <v>2018</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>31</v>
@@ -11570,16 +11573,16 @@
         <v>32</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11587,16 +11590,16 @@
         <v>2018</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>31</v>
@@ -11614,13 +11617,13 @@
         <v>32</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11628,16 +11631,16 @@
         <v>2018</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>31</v>
@@ -11655,13 +11658,13 @@
         <v>32</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11669,16 +11672,16 @@
         <v>2019</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>31</v>
@@ -11696,16 +11699,16 @@
         <v>32</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11713,13 +11716,13 @@
         <v>2019</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>145</v>
@@ -11740,13 +11743,13 @@
         <v>32</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11757,13 +11760,13 @@
         <v>238</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>31</v>
@@ -11781,13 +11784,13 @@
         <v>32</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11798,10 +11801,10 @@
         <v>218</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>219</v>
@@ -11822,13 +11825,13 @@
         <v>32</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11839,13 +11842,13 @@
         <v>71</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>31</v>
@@ -11863,13 +11866,13 @@
         <v>38</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11880,13 +11883,13 @@
         <v>71</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>31</v>
@@ -11904,13 +11907,13 @@
         <v>38</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11918,13 +11921,13 @@
         <v>2017</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>155</v>
@@ -11945,10 +11948,10 @@
         <v>38</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11956,16 +11959,16 @@
         <v>2018</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>31</v>
@@ -11983,10 +11986,10 @@
         <v>38</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11994,13 +11997,13 @@
         <v>2019</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>21</v>
@@ -12018,10 +12021,10 @@
         <v>38</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12032,11 +12035,11 @@
         <v>71</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>155</v>
@@ -12057,10 +12060,10 @@
         <v>38</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12068,13 +12071,13 @@
         <v>2016</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>155</v>
@@ -12092,16 +12095,16 @@
         <v>88</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12109,13 +12112,13 @@
         <v>2017</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>155</v>
@@ -12133,16 +12136,16 @@
         <v>88</v>
       </c>
       <c r="K206" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12150,13 +12153,13 @@
         <v>2018</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>145</v>
@@ -12174,16 +12177,16 @@
         <v>88</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12191,16 +12194,16 @@
         <v>2017</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>21</v>
@@ -12215,16 +12218,16 @@
         <v>88</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12232,13 +12235,13 @@
         <v>2018</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>155</v>
@@ -12256,13 +12259,13 @@
         <v>88</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12270,13 +12273,13 @@
         <v>2018</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>155</v>
@@ -12294,13 +12297,13 @@
         <v>88</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12308,13 +12311,13 @@
         <v>2018</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>21</v>
@@ -12329,13 +12332,13 @@
         <v>88</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12343,13 +12346,13 @@
         <v>2019</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F212" s="8" t="s">
         <v>155</v>
@@ -12367,13 +12370,13 @@
         <v>88</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12381,16 +12384,16 @@
         <v>2019</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>21</v>
@@ -12405,13 +12408,13 @@
         <v>88</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12419,14 +12422,14 @@
         <v>2021</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>155</v>
@@ -12444,13 +12447,13 @@
         <v>88</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12458,17 +12461,17 @@
         <v>2021</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D215" s="8"/>
       <c r="E215" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>21</v>
@@ -12486,13 +12489,13 @@
         <v>89</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12500,14 +12503,14 @@
         <v>2021</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F216" s="8"/>
       <c r="G216" s="8" t="s">
@@ -12526,13 +12529,13 @@
         <v>89</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12540,10 +12543,10 @@
         <v>2020</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8" t="s">
@@ -12568,13 +12571,13 @@
         <v>89</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12582,14 +12585,14 @@
         <v>2020</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F218" s="8" t="s">
         <v>107</v>
@@ -12610,10 +12613,10 @@
         <v>89</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12621,14 +12624,14 @@
         <v>2020</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>155</v>
@@ -12649,10 +12652,10 @@
         <v>89</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12660,17 +12663,17 @@
         <v>2020</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>21</v>
@@ -12688,10 +12691,10 @@
         <v>89</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12699,16 +12702,16 @@
         <v>2017</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>21</v>
@@ -12723,16 +12726,16 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12740,16 +12743,16 @@
         <v>2020</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>21</v>
@@ -12764,16 +12767,16 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12781,16 +12784,16 @@
         <v>2019</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>31</v>
@@ -12808,13 +12811,13 @@
         <v>97</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12822,16 +12825,16 @@
         <v>2017</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>31</v>
@@ -12849,10 +12852,10 @@
         <v>97</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12860,13 +12863,13 @@
         <v>2018</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>107</v>
@@ -12887,10 +12890,10 @@
         <v>97</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12898,16 +12901,16 @@
         <v>2018</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>21</v>
@@ -12925,10 +12928,10 @@
         <v>97</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12936,16 +12939,16 @@
         <v>2019</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>31</v>
@@ -12963,10 +12966,10 @@
         <v>97</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12974,14 +12977,14 @@
         <v>2020</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D228" s="8"/>
       <c r="E228" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>155</v>
@@ -13002,10 +13005,10 @@
         <v>97</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -13112,13 +13115,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13259,15 +13262,15 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>836</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>25</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -13283,7 +13286,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -13291,7 +13294,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -13299,18 +13302,18 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>14</v>
@@ -13318,7 +13321,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
@@ -13334,7 +13337,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13342,7 +13345,7 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>9</v>
@@ -13374,7 +13377,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>13</v>
@@ -13382,63 +13385,63 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>853</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="859">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -876,31 +876,34 @@
     <t xml:space="preserve">Hermansdorfer Leonhard</t>
   </si>
   <si>
+    <t xml:space="preserve">Friction estimation + prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF + LUT + classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concept for estimation and prediction of the tire-road friction potential for an autonomous racecar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Race-Time Planning-Strategy for an Autonomous Electric Racecar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-Time Adaptive Velocity Optimization for Autonomous Electric Cars at the Limits of Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9310276</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 -  Additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A concept for estimation and prediction of the tire-road friction potential for an autonomous racecar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/8917024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Race-Time Planning-Strategy for an Autonomous Electric Racecar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9294681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-Time Adaptive Velocity Optimization for Autonomous Electric Cars at the Limits of Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/9310276</t>
   </si>
   <si>
     <t xml:space="preserve">Online Verification</t>
@@ -2979,7 +2982,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3168,11 +3171,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95019024"/>
-        <c:axId val="40264096"/>
+        <c:axId val="9815137"/>
+        <c:axId val="84369432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95019024"/>
+        <c:axId val="9815137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3250,13 +3253,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40264096"/>
+        <c:crossAx val="84369432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40264096"/>
+        <c:axId val="84369432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95019024"/>
+        <c:crossAx val="9815137"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3407,8 +3410,8 @@
   </sheetPr>
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="58:58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5847,16 +5850,16 @@
         <v>269</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
@@ -5982,13 +5985,13 @@
         <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
@@ -6006,13 +6009,13 @@
         <v>38</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6020,7 +6023,7 @@
         <v>2018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>142</v>
@@ -6032,7 +6035,7 @@
         <v>144</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>31</v>
@@ -6050,10 +6053,10 @@
         <v>38</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6061,7 +6064,7 @@
         <v>2019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>142</v>
@@ -6091,10 +6094,10 @@
         <v>38</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6111,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>31</v>
@@ -6132,10 +6135,10 @@
         <v>38</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6149,13 +6152,13 @@
         <v>142</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>21</v>
@@ -6173,10 +6176,10 @@
         <v>38</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6184,7 +6187,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>142</v>
@@ -6211,16 +6214,16 @@
         <v>88</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6228,7 +6231,7 @@
         <v>2015</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>142</v>
@@ -6240,7 +6243,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -6255,16 +6258,16 @@
         <v>88</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6272,7 +6275,7 @@
         <v>2018</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>142</v>
@@ -6296,16 +6299,16 @@
         <v>88</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6313,7 +6316,7 @@
         <v>2020</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>142</v>
@@ -6337,16 +6340,16 @@
         <v>88</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6354,7 +6357,7 @@
         <v>2016</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>142</v>
@@ -6366,7 +6369,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>21</v>
@@ -6381,16 +6384,16 @@
         <v>88</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6398,7 +6401,7 @@
         <v>2017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>142</v>
@@ -6410,7 +6413,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>21</v>
@@ -6425,16 +6428,16 @@
         <v>88</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6442,7 +6445,7 @@
         <v>2018</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>142</v>
@@ -6451,10 +6454,10 @@
         <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>21</v>
@@ -6469,16 +6472,16 @@
         <v>88</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6486,7 +6489,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>142</v>
@@ -6495,10 +6498,10 @@
         <v>143</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
@@ -6513,16 +6516,16 @@
         <v>88</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6530,7 +6533,7 @@
         <v>2017</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>142</v>
@@ -6542,7 +6545,7 @@
         <v>159</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>21</v>
@@ -6557,14 +6560,14 @@
         <v>88</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -6574,7 +6577,7 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>142</v>
@@ -6583,7 +6586,7 @@
         <v>143</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>176</v>
@@ -6604,13 +6607,13 @@
         <v>89</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6618,7 +6621,7 @@
         <v>2020</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>142</v>
@@ -6627,7 +6630,7 @@
         <v>143</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>155</v>
@@ -6648,10 +6651,10 @@
         <v>89</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6659,7 +6662,7 @@
         <v>2021</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>142</v>
@@ -6671,7 +6674,7 @@
         <v>144</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>21</v>
@@ -6689,10 +6692,10 @@
         <v>89</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6700,7 +6703,7 @@
         <v>2021</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>142</v>
@@ -6712,7 +6715,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>21</v>
@@ -6730,10 +6733,10 @@
         <v>89</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6741,7 +6744,7 @@
         <v>2021</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>142</v>
@@ -6750,10 +6753,10 @@
         <v>143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>21</v>
@@ -6771,10 +6774,10 @@
         <v>89</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6782,7 +6785,7 @@
         <v>2019</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>142</v>
@@ -6809,16 +6812,16 @@
         <v>88</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6826,7 +6829,7 @@
         <v>2021</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>142</v>
@@ -6853,16 +6856,16 @@
         <v>88</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6870,7 +6873,7 @@
         <v>2020</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>142</v>
@@ -6897,13 +6900,13 @@
         <v>88</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6939,13 +6942,13 @@
         <v>97</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6953,7 +6956,7 @@
         <v>2021</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>142</v>
@@ -6983,13 +6986,13 @@
         <v>97</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6997,7 +7000,7 @@
         <v>2020</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>142</v>
@@ -7009,7 +7012,7 @@
         <v>144</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>21</v>
@@ -7027,10 +7030,10 @@
         <v>97</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7038,19 +7041,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>21</v>
@@ -7068,13 +7071,13 @@
         <v>22</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7082,19 +7085,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -7112,13 +7115,13 @@
         <v>22</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7126,19 +7129,19 @@
         <v>2020</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
@@ -7156,13 +7159,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7170,19 +7173,19 @@
         <v>2020</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>21</v>
@@ -7200,13 +7203,13 @@
         <v>22</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7214,19 +7217,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
@@ -7244,10 +7247,10 @@
         <v>22</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7255,19 +7258,19 @@
         <v>2018</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -7285,11 +7288,11 @@
         <v>22</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7299,19 +7302,19 @@
         <v>2018</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -7329,11 +7332,11 @@
         <v>22</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7343,19 +7346,19 @@
         <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
@@ -7373,11 +7376,11 @@
         <v>22</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7387,19 +7390,19 @@
         <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -7417,11 +7420,11 @@
         <v>22</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7431,19 +7434,19 @@
         <v>2020</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>21</v>
@@ -7461,11 +7464,11 @@
         <v>22</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7478,16 +7481,16 @@
         <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>21</v>
@@ -7505,11 +7508,11 @@
         <v>22</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7519,19 +7522,19 @@
         <v>2021</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>21</v>
@@ -7549,11 +7552,11 @@
         <v>22</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7563,19 +7566,19 @@
         <v>2021</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>21</v>
@@ -7590,16 +7593,16 @@
         <v>32</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7609,19 +7612,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>31</v>
@@ -7636,14 +7639,14 @@
         <v>88</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7653,19 +7656,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>31</v>
@@ -7680,16 +7683,16 @@
         <v>88</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7699,19 +7702,19 @@
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -7726,14 +7729,14 @@
         <v>88</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7743,19 +7746,19 @@
         <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -7770,14 +7773,14 @@
         <v>88</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7787,19 +7790,19 @@
         <v>2020</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>21</v>
@@ -7814,14 +7817,14 @@
         <v>88</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7831,19 +7834,19 @@
         <v>2020</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>21</v>
@@ -7858,14 +7861,14 @@
         <v>88</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7878,16 +7881,16 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>21</v>
@@ -7905,11 +7908,11 @@
         <v>89</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -7919,19 +7922,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>21</v>
@@ -7949,13 +7952,13 @@
         <v>22</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7963,19 +7966,19 @@
         <v>2005</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>21</v>
@@ -7993,11 +7996,11 @@
         <v>22</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -8007,19 +8010,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>21</v>
@@ -8037,10 +8040,10 @@
         <v>22</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8048,19 +8051,19 @@
         <v>2020</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>21</v>
@@ -8072,16 +8075,16 @@
         <v>31</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8095,11 +8098,11 @@
         <v>250</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>31</v>
@@ -8117,13 +8120,13 @@
         <v>32</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -8133,19 +8136,19 @@
         <v>2013</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>31</v>
@@ -8163,13 +8166,13 @@
         <v>32</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="112" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8177,19 +8180,19 @@
         <v>2016</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>31</v>
@@ -8207,13 +8210,13 @@
         <v>32</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8221,7 +8224,7 @@
         <v>2017</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>250</v>
@@ -8230,10 +8233,10 @@
         <v>251</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>31</v>
@@ -8251,13 +8254,13 @@
         <v>32</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8265,7 +8268,7 @@
         <v>2019</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>250</v>
@@ -8274,7 +8277,7 @@
         <v>251</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>107</v>
@@ -8295,13 +8298,13 @@
         <v>32</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8315,13 +8318,13 @@
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>22</v>
@@ -8339,13 +8342,13 @@
         <v>38</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8359,13 +8362,13 @@
         <v>250</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>31</v>
@@ -8383,13 +8386,13 @@
         <v>38</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8403,13 +8406,13 @@
         <v>250</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>31</v>
@@ -8427,13 +8430,13 @@
         <v>38</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8447,13 +8450,13 @@
         <v>250</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>21</v>
@@ -8471,13 +8474,13 @@
         <v>38</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -8493,13 +8496,13 @@
         <v>250</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>22</v>
@@ -8517,13 +8520,13 @@
         <v>38</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
@@ -8539,13 +8542,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>22</v>
@@ -8563,13 +8566,13 @@
         <v>38</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -8588,7 +8591,7 @@
         <v>251</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>107</v>
@@ -8609,13 +8612,13 @@
         <v>38</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8629,13 +8632,13 @@
         <v>250</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>21</v>
@@ -8653,11 +8656,11 @@
         <v>38</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -8667,19 +8670,19 @@
         <v>2019</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>31</v>
@@ -8697,10 +8700,10 @@
         <v>38</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8708,7 +8711,7 @@
         <v>2020</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>250</v>
@@ -8717,7 +8720,7 @@
         <v>251</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>107</v>
@@ -8738,11 +8741,11 @@
         <v>38</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -8752,19 +8755,19 @@
         <v>2021</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>31</v>
@@ -8782,11 +8785,11 @@
         <v>38</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -8796,7 +8799,7 @@
         <v>2017</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>250</v>
@@ -8805,10 +8808,10 @@
         <v>251</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>21</v>
@@ -8823,16 +8826,16 @@
         <v>88</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8840,7 +8843,7 @@
         <v>2019</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>250</v>
@@ -8849,7 +8852,7 @@
         <v>251</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>107</v>
@@ -8867,14 +8870,14 @@
         <v>88</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -8884,19 +8887,19 @@
         <v>2020</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>21</v>
@@ -8914,13 +8917,13 @@
         <v>89</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8928,19 +8931,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>31</v>
@@ -8958,13 +8961,13 @@
         <v>97</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8972,19 +8975,19 @@
         <v>2017</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>21</v>
@@ -9002,10 +9005,10 @@
         <v>97</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9013,19 +9016,19 @@
         <v>2018</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>31</v>
@@ -9043,10 +9046,10 @@
         <v>97</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9054,19 +9057,19 @@
         <v>2019</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>21</v>
@@ -9084,10 +9087,10 @@
         <v>97</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9095,19 +9098,19 @@
         <v>2019</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>31</v>
@@ -9125,10 +9128,10 @@
         <v>97</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9136,19 +9139,19 @@
         <v>2019</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>21</v>
@@ -9166,11 +9169,11 @@
         <v>97</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M134" s="5"/>
       <c r="N134" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -9180,19 +9183,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>31</v>
@@ -9210,11 +9213,11 @@
         <v>97</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M135" s="5"/>
       <c r="N135" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
@@ -9224,19 +9227,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>31</v>
@@ -9254,11 +9257,11 @@
         <v>97</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -9268,19 +9271,19 @@
         <v>2020</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>21</v>
@@ -9295,13 +9298,13 @@
         <v>32</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9309,19 +9312,19 @@
         <v>2020</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>21</v>
@@ -9336,13 +9339,13 @@
         <v>32</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9350,19 +9353,19 @@
         <v>2021</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>31</v>
@@ -9377,16 +9380,16 @@
         <v>32</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M139" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
@@ -9396,19 +9399,19 @@
         <v>2019</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>21</v>
@@ -9423,14 +9426,14 @@
         <v>88</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M140" s="5"/>
       <c r="N140" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -9440,19 +9443,19 @@
         <v>2020</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>21</v>
@@ -9467,14 +9470,14 @@
         <v>88</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M141" s="5"/>
       <c r="N141" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
@@ -9484,19 +9487,19 @@
         <v>2019</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>21</v>
@@ -9511,16 +9514,16 @@
         <v>88</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M142" s="5" t="s">
         <v>162</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -9530,19 +9533,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>21</v>
@@ -9557,13 +9560,13 @@
         <v>88</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9571,19 +9574,19 @@
         <v>2019</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>21</v>
@@ -9601,13 +9604,13 @@
         <v>89</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
@@ -9617,19 +9620,19 @@
         <v>2019</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>21</v>
@@ -9647,13 +9650,13 @@
         <v>89</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
@@ -9663,19 +9666,19 @@
         <v>2020</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>21</v>
@@ -9693,13 +9696,13 @@
         <v>89</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
@@ -9709,19 +9712,19 @@
         <v>2017</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>21</v>
@@ -9736,14 +9739,14 @@
         <v>88</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M147" s="5"/>
       <c r="N147" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
@@ -9753,19 +9756,19 @@
         <v>2020</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>21</v>
@@ -9780,14 +9783,14 @@
         <v>88</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O148" s="7"/>
       <c r="P148" s="5"/>
@@ -9797,19 +9800,19 @@
         <v>2019</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>21</v>
@@ -9824,14 +9827,14 @@
         <v>88</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M149" s="5"/>
       <c r="N149" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
@@ -9841,19 +9844,19 @@
         <v>2014</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>21</v>
@@ -9868,14 +9871,14 @@
         <v>88</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M150" s="5"/>
       <c r="N150" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
@@ -9885,19 +9888,19 @@
         <v>2014</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>21</v>
@@ -9915,11 +9918,11 @@
         <v>97</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M151" s="5"/>
       <c r="N151" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
@@ -9929,19 +9932,19 @@
         <v>2017</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>31</v>
@@ -9959,11 +9962,11 @@
         <v>97</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
@@ -9973,16 +9976,16 @@
         <v>2019</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>21</v>
@@ -10000,13 +10003,13 @@
         <v>22</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10014,13 +10017,13 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>155</v>
@@ -10041,13 +10044,13 @@
         <v>22</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10055,17 +10058,17 @@
         <v>2021</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>21</v>
@@ -10083,13 +10086,13 @@
         <v>22</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10097,40 +10100,40 @@
         <v>2017</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="M156" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="M156" s="8" t="s">
-        <v>613</v>
-      </c>
       <c r="N156" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10138,43 +10141,43 @@
         <v>2017</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="M157" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="M157" s="8" t="s">
-        <v>613</v>
-      </c>
       <c r="N157" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10182,43 +10185,43 @@
         <v>2017</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="M158" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" s="8" t="s">
+      <c r="N158" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="M158" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10226,43 +10229,43 @@
         <v>2018</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="M159" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="M159" s="8" t="s">
-        <v>613</v>
-      </c>
       <c r="N159" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10270,10 +10273,10 @@
         <v>1989</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>206</v>
@@ -10294,10 +10297,10 @@
         <v>22</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10305,16 +10308,16 @@
         <v>2008</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>21</v>
@@ -10332,10 +10335,10 @@
         <v>22</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10343,16 +10346,16 @@
         <v>2009</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>21</v>
@@ -10370,10 +10373,10 @@
         <v>22</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10381,13 +10384,13 @@
         <v>2015</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>155</v>
@@ -10408,10 +10411,10 @@
         <v>22</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10419,10 +10422,10 @@
         <v>2016</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>206</v>
@@ -10446,10 +10449,10 @@
         <v>22</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10457,16 +10460,16 @@
         <v>2017</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>21</v>
@@ -10484,10 +10487,10 @@
         <v>22</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10495,16 +10498,16 @@
         <v>2017</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>21</v>
@@ -10522,10 +10525,10 @@
         <v>22</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N166" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10533,16 +10536,16 @@
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>21</v>
@@ -10560,10 +10563,10 @@
         <v>22</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10571,16 +10574,16 @@
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>21</v>
@@ -10598,10 +10601,10 @@
         <v>22</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10609,13 +10612,13 @@
         <v>2018</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>167</v>
@@ -10636,10 +10639,10 @@
         <v>22</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10647,16 +10650,16 @@
         <v>2018</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>21</v>
@@ -10674,10 +10677,10 @@
         <v>22</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10685,16 +10688,16 @@
         <v>2019</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>21</v>
@@ -10712,10 +10715,10 @@
         <v>22</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10723,14 +10726,14 @@
         <v>2020</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>107</v>
@@ -10751,13 +10754,13 @@
         <v>22</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10765,17 +10768,17 @@
         <v>2020</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>21</v>
@@ -10793,13 +10796,13 @@
         <v>22</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10807,17 +10810,17 @@
         <v>2020</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>21</v>
@@ -10835,10 +10838,10 @@
         <v>22</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10846,17 +10849,17 @@
         <v>2020</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>21</v>
@@ -10874,10 +10877,10 @@
         <v>22</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10885,16 +10888,16 @@
         <v>2020</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>21</v>
@@ -10912,10 +10915,10 @@
         <v>22</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10923,17 +10926,17 @@
         <v>2020</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D177" s="8"/>
       <c r="E177" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>21</v>
@@ -10951,10 +10954,10 @@
         <v>22</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10962,14 +10965,14 @@
         <v>2021</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D178" s="8"/>
       <c r="E178" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>219</v>
@@ -10990,10 +10993,10 @@
         <v>22</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11001,17 +11004,17 @@
         <v>2021</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>21</v>
@@ -11026,16 +11029,16 @@
         <v>32</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11043,16 +11046,16 @@
         <v>2010</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>31</v>
@@ -11070,13 +11073,13 @@
         <v>32</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11084,16 +11087,16 @@
         <v>2010</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>31</v>
@@ -11111,13 +11114,13 @@
         <v>32</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11125,19 +11128,19 @@
         <v>2011</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>31</v>
@@ -11155,13 +11158,13 @@
         <v>32</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M182" s="5" t="s">
         <v>234</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
@@ -11171,13 +11174,13 @@
         <v>2012</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>155</v>
@@ -11198,13 +11201,13 @@
         <v>32</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11212,16 +11215,16 @@
         <v>2012</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>31</v>
@@ -11239,13 +11242,13 @@
         <v>32</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11253,16 +11256,16 @@
         <v>2012</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>31</v>
@@ -11280,13 +11283,13 @@
         <v>32</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11294,16 +11297,16 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>31</v>
@@ -11321,16 +11324,16 @@
         <v>32</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11341,13 +11344,13 @@
         <v>238</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>31</v>
@@ -11365,13 +11368,13 @@
         <v>32</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11382,13 +11385,13 @@
         <v>238</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>31</v>
@@ -11406,13 +11409,13 @@
         <v>32</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11420,16 +11423,16 @@
         <v>2015</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>31</v>
@@ -11447,13 +11450,13 @@
         <v>32</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11461,16 +11464,16 @@
         <v>2016</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>31</v>
@@ -11488,16 +11491,16 @@
         <v>32</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11505,16 +11508,16 @@
         <v>2017</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>31</v>
@@ -11532,13 +11535,13 @@
         <v>32</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11546,16 +11549,16 @@
         <v>2018</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>31</v>
@@ -11573,16 +11576,16 @@
         <v>32</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11590,16 +11593,16 @@
         <v>2018</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>31</v>
@@ -11617,13 +11620,13 @@
         <v>32</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11631,16 +11634,16 @@
         <v>2018</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>31</v>
@@ -11658,13 +11661,13 @@
         <v>32</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11672,16 +11675,16 @@
         <v>2019</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>31</v>
@@ -11699,16 +11702,16 @@
         <v>32</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11716,13 +11719,13 @@
         <v>2019</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>145</v>
@@ -11743,13 +11746,13 @@
         <v>32</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11760,13 +11763,13 @@
         <v>238</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>31</v>
@@ -11784,13 +11787,13 @@
         <v>32</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11801,10 +11804,10 @@
         <v>218</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>219</v>
@@ -11825,13 +11828,13 @@
         <v>32</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11842,13 +11845,13 @@
         <v>71</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>31</v>
@@ -11866,13 +11869,13 @@
         <v>38</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11883,13 +11886,13 @@
         <v>71</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>31</v>
@@ -11907,13 +11910,13 @@
         <v>38</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11921,13 +11924,13 @@
         <v>2017</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>155</v>
@@ -11948,10 +11951,10 @@
         <v>38</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11959,16 +11962,16 @@
         <v>2018</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>31</v>
@@ -11986,10 +11989,10 @@
         <v>38</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11997,13 +12000,13 @@
         <v>2019</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>21</v>
@@ -12021,10 +12024,10 @@
         <v>38</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12035,11 +12038,11 @@
         <v>71</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>155</v>
@@ -12060,10 +12063,10 @@
         <v>38</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12071,13 +12074,13 @@
         <v>2016</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>155</v>
@@ -12095,16 +12098,16 @@
         <v>88</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12112,13 +12115,13 @@
         <v>2017</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>155</v>
@@ -12136,16 +12139,16 @@
         <v>88</v>
       </c>
       <c r="K206" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12153,13 +12156,13 @@
         <v>2018</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>145</v>
@@ -12177,16 +12180,16 @@
         <v>88</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12194,16 +12197,16 @@
         <v>2017</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>21</v>
@@ -12218,16 +12221,16 @@
         <v>88</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N208" s="6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12235,13 +12238,13 @@
         <v>2018</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>155</v>
@@ -12259,13 +12262,13 @@
         <v>88</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12273,13 +12276,13 @@
         <v>2018</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>155</v>
@@ -12297,13 +12300,13 @@
         <v>88</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12311,13 +12314,13 @@
         <v>2018</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>21</v>
@@ -12332,13 +12335,13 @@
         <v>88</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12346,13 +12349,13 @@
         <v>2019</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F212" s="8" t="s">
         <v>155</v>
@@ -12370,13 +12373,13 @@
         <v>88</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12384,16 +12387,16 @@
         <v>2019</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>21</v>
@@ -12408,13 +12411,13 @@
         <v>88</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12422,14 +12425,14 @@
         <v>2021</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>155</v>
@@ -12447,13 +12450,13 @@
         <v>88</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12461,17 +12464,17 @@
         <v>2021</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D215" s="8"/>
       <c r="E215" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>21</v>
@@ -12489,13 +12492,13 @@
         <v>89</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12503,14 +12506,14 @@
         <v>2021</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F216" s="8"/>
       <c r="G216" s="8" t="s">
@@ -12529,13 +12532,13 @@
         <v>89</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12543,10 +12546,10 @@
         <v>2020</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8" t="s">
@@ -12571,13 +12574,13 @@
         <v>89</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12585,14 +12588,14 @@
         <v>2020</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F218" s="8" t="s">
         <v>107</v>
@@ -12613,10 +12616,10 @@
         <v>89</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12624,14 +12627,14 @@
         <v>2020</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>155</v>
@@ -12652,10 +12655,10 @@
         <v>89</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12663,17 +12666,17 @@
         <v>2020</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>21</v>
@@ -12691,10 +12694,10 @@
         <v>89</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12702,16 +12705,16 @@
         <v>2017</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>21</v>
@@ -12726,16 +12729,16 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12743,16 +12746,16 @@
         <v>2020</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>21</v>
@@ -12767,16 +12770,16 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12784,16 +12787,16 @@
         <v>2019</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>31</v>
@@ -12811,13 +12814,13 @@
         <v>97</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12825,16 +12828,16 @@
         <v>2017</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>31</v>
@@ -12852,10 +12855,10 @@
         <v>97</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12863,13 +12866,13 @@
         <v>2018</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>107</v>
@@ -12890,10 +12893,10 @@
         <v>97</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12901,16 +12904,16 @@
         <v>2018</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>21</v>
@@ -12928,10 +12931,10 @@
         <v>97</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12939,16 +12942,16 @@
         <v>2019</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>31</v>
@@ -12966,10 +12969,10 @@
         <v>97</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12977,14 +12980,14 @@
         <v>2020</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D228" s="8"/>
       <c r="E228" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>155</v>
@@ -13005,10 +13008,10 @@
         <v>97</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -13100,7 +13103,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="58:58 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13115,13 +13118,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,7 +13251,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="58:58 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13262,15 +13265,15 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>837</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>25</v>
@@ -13278,7 +13281,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -13286,7 +13289,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -13294,7 +13297,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -13302,18 +13305,18 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>14</v>
@@ -13321,7 +13324,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>8</v>
@@ -13337,7 +13340,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13345,7 +13348,7 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>9</v>
@@ -13377,7 +13380,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>13</v>
@@ -13385,63 +13388,63 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>854</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -951,6 +951,9 @@
     <t xml:space="preserve">https://ieeexplore-ieee-org.proxy.library.upenn.edu/document/9304722</t>
   </si>
   <si>
+    <t xml:space="preserve">1- Evaluation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Online Verification Enabling Approval of Driving Functions—Implementation for a Planner of an Autonomous Race Vehicle</t>
   </si>
   <si>
@@ -1454,9 +1457,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.710.6672&amp;rep=rep1&amp;type=pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Evaluation</t>
   </si>
   <si>
     <t xml:space="preserve">Overall Racing Comparison</t>
@@ -2982,7 +2982,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3171,11 +3171,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="9815137"/>
-        <c:axId val="84369432"/>
+        <c:axId val="52899356"/>
+        <c:axId val="94820870"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9815137"/>
+        <c:axId val="52899356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3253,13 +3253,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84369432"/>
+        <c:crossAx val="94820870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84369432"/>
+        <c:axId val="94820870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9815137"/>
+        <c:crossAx val="52899356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,8 +3410,8 @@
   </sheetPr>
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="58:58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="65:65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6149,10 +6149,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>280</v>
@@ -6176,10 +6176,10 @@
         <v>38</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6187,7 +6187,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>142</v>
@@ -6214,16 +6214,16 @@
         <v>88</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6231,7 +6231,7 @@
         <v>2015</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>142</v>
@@ -6243,7 +6243,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
@@ -6258,16 +6258,16 @@
         <v>88</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6275,7 +6275,7 @@
         <v>2018</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>142</v>
@@ -6299,16 +6299,16 @@
         <v>88</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6316,7 +6316,7 @@
         <v>2020</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>142</v>
@@ -6340,16 +6340,16 @@
         <v>88</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6357,7 +6357,7 @@
         <v>2016</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>142</v>
@@ -6369,7 +6369,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>21</v>
@@ -6384,16 +6384,16 @@
         <v>88</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6401,7 +6401,7 @@
         <v>2017</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>142</v>
@@ -6413,7 +6413,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>21</v>
@@ -6428,16 +6428,16 @@
         <v>88</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6445,7 +6445,7 @@
         <v>2018</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>142</v>
@@ -6454,10 +6454,10 @@
         <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>21</v>
@@ -6472,16 +6472,16 @@
         <v>88</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6489,7 +6489,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>142</v>
@@ -6498,10 +6498,10 @@
         <v>143</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
@@ -6516,16 +6516,16 @@
         <v>88</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6533,7 +6533,7 @@
         <v>2017</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>142</v>
@@ -6545,7 +6545,7 @@
         <v>159</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>21</v>
@@ -6560,14 +6560,14 @@
         <v>88</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -6577,7 +6577,7 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>142</v>
@@ -6586,7 +6586,7 @@
         <v>143</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>176</v>
@@ -6607,13 +6607,13 @@
         <v>89</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6621,7 +6621,7 @@
         <v>2020</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>142</v>
@@ -6630,7 +6630,7 @@
         <v>143</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>155</v>
@@ -6651,10 +6651,10 @@
         <v>89</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6662,7 +6662,7 @@
         <v>2021</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>142</v>
@@ -6674,7 +6674,7 @@
         <v>144</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>21</v>
@@ -6692,10 +6692,10 @@
         <v>89</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6703,7 +6703,7 @@
         <v>2021</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>142</v>
@@ -6715,7 +6715,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>21</v>
@@ -6733,10 +6733,10 @@
         <v>89</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6744,7 +6744,7 @@
         <v>2021</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>142</v>
@@ -6753,10 +6753,10 @@
         <v>143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>21</v>
@@ -6774,10 +6774,10 @@
         <v>89</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6785,7 +6785,7 @@
         <v>2019</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>142</v>
@@ -6812,16 +6812,16 @@
         <v>88</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6829,7 +6829,7 @@
         <v>2021</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>142</v>
@@ -6856,16 +6856,16 @@
         <v>88</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6873,7 +6873,7 @@
         <v>2020</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>142</v>
@@ -6900,13 +6900,13 @@
         <v>88</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6942,13 +6942,13 @@
         <v>97</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6956,7 +6956,7 @@
         <v>2021</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>142</v>
@@ -6986,13 +6986,13 @@
         <v>97</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7000,7 +7000,7 @@
         <v>2020</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>142</v>
@@ -7012,7 +7012,7 @@
         <v>144</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>21</v>
@@ -7030,10 +7030,10 @@
         <v>97</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7041,19 +7041,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>21</v>
@@ -7071,13 +7071,13 @@
         <v>22</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7085,19 +7085,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -7115,13 +7115,13 @@
         <v>22</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7129,19 +7129,19 @@
         <v>2020</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
@@ -7159,13 +7159,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7173,19 +7173,19 @@
         <v>2020</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>21</v>
@@ -7203,13 +7203,13 @@
         <v>22</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7217,19 +7217,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
@@ -7247,10 +7247,10 @@
         <v>22</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7258,19 +7258,19 @@
         <v>2018</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -7288,11 +7288,11 @@
         <v>22</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7302,19 +7302,19 @@
         <v>2018</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -7332,11 +7332,11 @@
         <v>22</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7346,19 +7346,19 @@
         <v>2019</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
@@ -7376,11 +7376,11 @@
         <v>22</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7390,19 +7390,19 @@
         <v>2019</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -7420,11 +7420,11 @@
         <v>22</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7434,19 +7434,19 @@
         <v>2020</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>21</v>
@@ -7464,11 +7464,11 @@
         <v>22</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7481,16 +7481,16 @@
         <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>21</v>
@@ -7508,11 +7508,11 @@
         <v>22</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7522,19 +7522,19 @@
         <v>2021</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>21</v>
@@ -7552,11 +7552,11 @@
         <v>22</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7566,19 +7566,19 @@
         <v>2021</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>21</v>
@@ -7593,16 +7593,16 @@
         <v>32</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7612,19 +7612,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>31</v>
@@ -7639,14 +7639,14 @@
         <v>88</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7656,19 +7656,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>31</v>
@@ -7683,16 +7683,16 @@
         <v>88</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7702,19 +7702,19 @@
         <v>2018</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
@@ -7729,14 +7729,14 @@
         <v>88</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7746,19 +7746,19 @@
         <v>2019</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
@@ -7773,14 +7773,14 @@
         <v>88</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7790,19 +7790,19 @@
         <v>2020</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>21</v>
@@ -7817,14 +7817,14 @@
         <v>88</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7834,19 +7834,19 @@
         <v>2020</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>21</v>
@@ -7861,14 +7861,14 @@
         <v>88</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7881,16 +7881,16 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>21</v>
@@ -7908,11 +7908,11 @@
         <v>89</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -7922,19 +7922,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>21</v>
@@ -7952,13 +7952,13 @@
         <v>22</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7966,19 +7966,19 @@
         <v>2005</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>21</v>
@@ -7996,11 +7996,11 @@
         <v>22</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -8010,13 +8010,13 @@
         <v>2021</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>458</v>
@@ -8057,13 +8057,13 @@
         <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>21</v>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>31</v>
@@ -8142,7 +8142,7 @@
         <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>458</v>
@@ -8186,7 +8186,7 @@
         <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>458</v>
@@ -8318,7 +8318,7 @@
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>485</v>
@@ -8368,7 +8368,7 @@
         <v>489</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>31</v>
@@ -8412,7 +8412,7 @@
         <v>489</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>31</v>
@@ -8450,13 +8450,13 @@
         <v>250</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>494</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>21</v>
@@ -8496,13 +8496,13 @@
         <v>250</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>497</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>22</v>
@@ -8542,13 +8542,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>500</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>22</v>
@@ -8632,13 +8632,13 @@
         <v>250</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>505</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>21</v>
@@ -8682,7 +8682,7 @@
         <v>489</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>31</v>
@@ -8761,13 +8761,13 @@
         <v>250</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>31</v>
@@ -8799,7 +8799,7 @@
         <v>2017</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>250</v>
@@ -8826,7 +8826,7 @@
         <v>88</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>517</v>
@@ -8843,7 +8843,7 @@
         <v>2019</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>250</v>
@@ -8870,7 +8870,7 @@
         <v>88</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>519</v>
@@ -8893,13 +8893,13 @@
         <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>21</v>
@@ -8920,7 +8920,7 @@
         <v>522</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N128" s="11" t="s">
         <v>523</v>
@@ -8943,7 +8943,7 @@
         <v>489</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>31</v>
@@ -8964,7 +8964,7 @@
         <v>525</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N129" s="7" t="s">
         <v>526</v>
@@ -8987,7 +8987,7 @@
         <v>489</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>21</v>
@@ -9028,7 +9028,7 @@
         <v>489</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>31</v>
@@ -9110,7 +9110,7 @@
         <v>489</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>31</v>
@@ -9151,7 +9151,7 @@
         <v>489</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>21</v>
@@ -9195,7 +9195,7 @@
         <v>489</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>31</v>
@@ -9239,7 +9239,7 @@
         <v>489</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>31</v>
@@ -9283,7 +9283,7 @@
         <v>551</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>21</v>
@@ -9324,7 +9324,7 @@
         <v>551</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>21</v>
@@ -9365,7 +9365,7 @@
         <v>534</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>31</v>
@@ -9380,7 +9380,7 @@
         <v>32</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L139" s="5" t="s">
         <v>559</v>
@@ -9411,7 +9411,7 @@
         <v>534</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>21</v>
@@ -9455,7 +9455,7 @@
         <v>534</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>21</v>
@@ -9499,7 +9499,7 @@
         <v>534</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>21</v>
@@ -9514,7 +9514,7 @@
         <v>88</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L142" s="5" t="s">
         <v>568</v>
@@ -9545,7 +9545,7 @@
         <v>550</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>21</v>
@@ -9560,7 +9560,7 @@
         <v>88</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>571</v>
@@ -9586,7 +9586,7 @@
         <v>534</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>21</v>
@@ -9632,7 +9632,7 @@
         <v>534</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>21</v>
@@ -9653,7 +9653,7 @@
         <v>577</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N145" s="6" t="s">
         <v>578</v>
@@ -9678,7 +9678,7 @@
         <v>534</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>21</v>
@@ -9699,7 +9699,7 @@
         <v>580</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N146" s="7" t="s">
         <v>581</v>
@@ -9856,7 +9856,7 @@
         <v>534</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>21</v>
@@ -9900,7 +9900,7 @@
         <v>534</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>21</v>
@@ -9944,7 +9944,7 @@
         <v>534</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>31</v>
@@ -9976,7 +9976,7 @@
         <v>2019</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>603</v>
@@ -10006,7 +10006,7 @@
         <v>605</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>606</v>
@@ -10047,7 +10047,7 @@
         <v>608</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N154" s="9" t="s">
         <v>609</v>
@@ -10384,7 +10384,7 @@
         <v>2015</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>603</v>
@@ -10411,7 +10411,7 @@
         <v>22</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>639</v>
@@ -10536,7 +10536,7 @@
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>603</v>
@@ -10726,7 +10726,7 @@
         <v>2020</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>603</v>
@@ -11014,7 +11014,7 @@
         <v>603</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>21</v>
@@ -11029,7 +11029,7 @@
         <v>32</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L179" s="8" t="s">
         <v>693</v>
@@ -11093,7 +11093,7 @@
         <v>603</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>700</v>
@@ -12098,13 +12098,13 @@
         <v>88</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L205" s="8" t="s">
         <v>769</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>770</v>
@@ -12115,7 +12115,7 @@
         <v>2017</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>603</v>
@@ -12139,13 +12139,13 @@
         <v>88</v>
       </c>
       <c r="K206" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L206" s="8" t="s">
         <v>772</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>773</v>
@@ -12180,13 +12180,13 @@
         <v>88</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L207" s="8" t="s">
         <v>775</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N207" s="2" t="s">
         <v>776</v>
@@ -12197,7 +12197,7 @@
         <v>2017</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>603</v>
@@ -12221,13 +12221,13 @@
         <v>88</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L208" s="8" t="s">
         <v>778</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N208" s="6" t="s">
         <v>779</v>
@@ -12238,7 +12238,7 @@
         <v>2018</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>603</v>
@@ -12262,7 +12262,7 @@
         <v>88</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L209" s="8" t="s">
         <v>780</v>
@@ -12276,7 +12276,7 @@
         <v>2018</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>603</v>
@@ -12300,7 +12300,7 @@
         <v>88</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L210" s="8" t="s">
         <v>782</v>
@@ -12314,7 +12314,7 @@
         <v>2018</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>603</v>
@@ -12335,7 +12335,7 @@
         <v>88</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L211" s="8" t="s">
         <v>785</v>
@@ -12373,7 +12373,7 @@
         <v>88</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>788</v>
@@ -12387,16 +12387,16 @@
         <v>2019</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>603</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>21</v>
@@ -12411,7 +12411,7 @@
         <v>88</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L213" s="8" t="s">
         <v>790</v>
@@ -12450,7 +12450,7 @@
         <v>88</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L214" s="8" t="s">
         <v>793</v>
@@ -12577,7 +12577,7 @@
         <v>801</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N217" s="9" t="s">
         <v>802</v>
@@ -12817,7 +12817,7 @@
         <v>820</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>821</v>
@@ -13103,7 +13103,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="58:58 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="65:65 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13251,7 +13251,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="58:58 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="65:65 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -999,7 +999,7 @@
     <t xml:space="preserve">Williams Grady</t>
   </si>
   <si>
-    <t xml:space="preserve">Cornering</t>
+    <t xml:space="preserve">MPPI</t>
   </si>
   <si>
     <t xml:space="preserve">Auto Rally</t>
@@ -2982,7 +2982,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3171,11 +3171,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52899356"/>
-        <c:axId val="94820870"/>
+        <c:axId val="40368462"/>
+        <c:axId val="27764572"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52899356"/>
+        <c:axId val="40368462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3253,13 +3253,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94820870"/>
+        <c:crossAx val="27764572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94820870"/>
+        <c:axId val="27764572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52899356"/>
+        <c:crossAx val="40368462"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,8 +3410,8 @@
   </sheetPr>
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="65:65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13103,7 +13103,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="65:65 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13251,7 +13251,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="65:65 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/AutonomousRacing_Literature.xlsx
+++ b/AutonomousRacing_Literature.xlsx
@@ -2982,7 +2982,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3171,11 +3171,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="40368462"/>
-        <c:axId val="27764572"/>
+        <c:axId val="50835874"/>
+        <c:axId val="60884291"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40368462"/>
+        <c:axId val="50835874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2009"/>
@@ -3253,13 +3253,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27764572"/>
+        <c:crossAx val="60884291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27764572"/>
+        <c:axId val="60884291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +3336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40368462"/>
+        <c:crossAx val="50835874"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,8 +3410,10 @@
   </sheetPr>
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A71" activeCellId="0" sqref="71:71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6419,7 +6421,7 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>31</v>
@@ -13103,7 +13105,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="71:71 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13251,7 +13253,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="71:71 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
